--- a/celestia.xlsx
+++ b/celestia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="154">
   <si>
     <t>delegator_address</t>
   </si>
@@ -19,97 +19,460 @@
     <t>amount</t>
   </si>
   <si>
+    <t>celestia1qz730hrlwfz5mt4u5xzxa98dh34yfnggtrpwf5</t>
+  </si>
+  <si>
+    <t>184648472</t>
+  </si>
+  <si>
     <t>celestia1qvcy2gqxrdgnnypgsjcr2xz57lf4cs6nm6j2nl</t>
   </si>
   <si>
+    <t>1766900000</t>
+  </si>
+  <si>
+    <t>celestia1qe6q4wwjzse3rkv07czlevhngxn56susv386gz</t>
+  </si>
+  <si>
+    <t>2022110716</t>
+  </si>
+  <si>
+    <t>celestia1pduj08yt5w8thfp50lcvwhffrahpfpj5q06u4c</t>
+  </si>
+  <si>
+    <t>205142446</t>
+  </si>
+  <si>
     <t>celestia1p34krywk2xt67yz0ju4c5dzz5u6lurs08y2xuy</t>
   </si>
   <si>
+    <t>186054390</t>
+  </si>
+  <si>
+    <t>celestia1pjmdtwxqevyr9u38ap4qchfejgyj93da0xjwgt</t>
+  </si>
+  <si>
+    <t>104000000</t>
+  </si>
+  <si>
     <t>celestia1pa56a9fg5jhxrduru275vn2y7fpkxmx6up9jhw</t>
   </si>
   <si>
+    <t>432944976</t>
+  </si>
+  <si>
+    <t>celestia1zvn0400rgpyhvrse936p25mfkrnnr8elkjdzzt</t>
+  </si>
+  <si>
+    <t>107720000</t>
+  </si>
+  <si>
     <t>celestia1zwtv7pplzh7m3t4m2zel8c0q78qsyptvqpjctt</t>
   </si>
   <si>
+    <t>421388473</t>
+  </si>
+  <si>
+    <t>celestia1z3wu5uh60kmczccpxxlk469ue4muh63h8d9xte</t>
+  </si>
+  <si>
+    <t>100905000</t>
+  </si>
+  <si>
+    <t>celestia1zmruurfzccvmdgcuw2rv5rla6etk36k62a6w3m</t>
+  </si>
+  <si>
+    <t>105850000</t>
+  </si>
+  <si>
+    <t>celestia1r3sglnjc34q2l0nf2rl2dh6slum564mmk5249m</t>
+  </si>
+  <si>
+    <t>210456735</t>
+  </si>
+  <si>
+    <t>celestia1r4rcrlggecyhajgfvxqlu5pdnma64h6hudyj6s</t>
+  </si>
+  <si>
     <t>celestia1rhgsg2qedccgwrpws524tagm4v7rlpdrx9kz6h</t>
   </si>
   <si>
+    <t>celestia1yp542l3cwq8j0m9zkhcv8exrz2cp7l9quwrtys</t>
+  </si>
+  <si>
+    <t>108100000</t>
+  </si>
+  <si>
     <t>celestia1yyvdwarlwt4sz6qslzs5sx5jlzu6guaj783tlx</t>
   </si>
   <si>
+    <t>153400000</t>
+  </si>
+  <si>
+    <t>celestia1ymwgg85shgthy4gsp7qf59jpf0pz4c3rz3aqqm</t>
+  </si>
+  <si>
+    <t>271669888</t>
+  </si>
+  <si>
     <t>celestia19g9flltdr2ahajrkefdqxc34h5uc532d2v9pc9</t>
   </si>
   <si>
+    <t>124100000</t>
+  </si>
+  <si>
+    <t>celestia1xzq3z62dvsrlkpmsw8ju4unh95sr7svz8s7rjd</t>
+  </si>
+  <si>
+    <t>204807186</t>
+  </si>
+  <si>
+    <t>celestia1xkhs27xj8tjd74lyfhcgw4g03krnpn9wqz6mh7</t>
+  </si>
+  <si>
+    <t>276000306</t>
+  </si>
+  <si>
     <t>celestia188q0e9vyq60edst5drr03sxahlzre6yhcnqqh7</t>
   </si>
   <si>
+    <t>334385470</t>
+  </si>
+  <si>
     <t>celestia18gd7nsv2qrx9rv8n0gh37l0x8qmwnrhaj0wzrf</t>
   </si>
   <si>
+    <t>121000000</t>
+  </si>
+  <si>
     <t>celestia18nf84jgwkqypaplz45xyf3yegpu4vvhzvrgllq</t>
   </si>
   <si>
+    <t>101000000</t>
+  </si>
+  <si>
+    <t>celestia184mdhx7jq5al582e6t3ssdev08ccghk5lm6awh</t>
+  </si>
+  <si>
+    <t>106500000</t>
+  </si>
+  <si>
     <t>celestia1gfs3scxqhne0jg5eft55cplj4rlwfu458s7jc3</t>
   </si>
   <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>celestia12sxx3f0knswnxh763kpddwaygt8qfy0jke96gl</t>
+  </si>
+  <si>
+    <t>217200674</t>
+  </si>
+  <si>
+    <t>celestia1tgyqvzknt3l0qv6p98guu859mv8htpz6nmqvz0</t>
+  </si>
+  <si>
+    <t>200095322</t>
+  </si>
+  <si>
     <t>celestia1vkngvnelw4tgahyn20sr0kvk9jq8wrfekx6ank</t>
   </si>
   <si>
+    <t>358320000</t>
+  </si>
+  <si>
+    <t>celestia1dqtfsays94pktsj2dachaju37v2jxpjsgz2acz</t>
+  </si>
+  <si>
+    <t>3011600000</t>
+  </si>
+  <si>
     <t>celestia1duls39pg7uqze7vpz65n22re72nycvmrgkg4kr</t>
   </si>
   <si>
+    <t>2706517148</t>
+  </si>
+  <si>
     <t>celestia1wgdegtthkx0n5fmyt2l2xn9jchywffac8q9eea</t>
   </si>
   <si>
+    <t>101080000</t>
+  </si>
+  <si>
+    <t>celestia1w2z74ln6kp08xac0smp2al35d7s7ju2rn5fuyj</t>
+  </si>
+  <si>
+    <t>114370000</t>
+  </si>
+  <si>
+    <t>celestia1wdnc6mfpcfs8md2cvm3gyfdzw8v3mcx8p2s6ux</t>
+  </si>
+  <si>
+    <t>125844427</t>
+  </si>
+  <si>
+    <t>celestia1wwf8fsyr3xj8a84k5qkf0tkmvq8gmhg3ks8fdm</t>
+  </si>
+  <si>
+    <t>154300000</t>
+  </si>
+  <si>
+    <t>celestia1wj22xy7mahsxldh3pmph6n94xuq20nusukn8mz</t>
+  </si>
+  <si>
+    <t>130000000</t>
+  </si>
+  <si>
     <t>celestia10guvn4243qg2l8ey8gy9zwttz6v23232f0rvcr</t>
   </si>
   <si>
     <t>celestia1s6fd9nyr2n4dgcwa8elkq4j7fv0s5tn44ne59f</t>
   </si>
   <si>
+    <t>230000000</t>
+  </si>
+  <si>
     <t>celestia1smq0qz39r8e8awga8zaxlquftkzxldr8asa0ad</t>
   </si>
   <si>
+    <t>340000000</t>
+  </si>
+  <si>
+    <t>celestia1sltq5xnhhh02zelpphpkqqfy48w7rg47000900</t>
+  </si>
+  <si>
+    <t>355500000</t>
+  </si>
+  <si>
     <t>celestia13zzlsjnauafxz764nvj6mgagrkt5vke3pcap23</t>
   </si>
   <si>
+    <t>158122334</t>
+  </si>
+  <si>
     <t>celestia13hapz35dfzuf9ult9vw7qdsag83r99qzu3uczw</t>
   </si>
   <si>
+    <t>283735299</t>
+  </si>
+  <si>
+    <t>celestia1jr0e4le4kr7ewtsvujrqzcyjqn9r026sj9g8nz</t>
+  </si>
+  <si>
+    <t>331543792</t>
+  </si>
+  <si>
+    <t>celestia1j9rgp25pup9gp3rr89vaxu2np8ncw5rnacceck</t>
+  </si>
+  <si>
     <t>celestia1jgpjmj0wlr34krplzhh7dywarfmkztuc6gz5wk</t>
   </si>
   <si>
+    <t>551264996</t>
+  </si>
+  <si>
+    <t>celestia1jttdtq9ah54rawwtsapt225unp8fdped37w4n8</t>
+  </si>
+  <si>
+    <t>758617816</t>
+  </si>
+  <si>
     <t>celestia1jtustv4ghy997d6catge3mgklszkvve6rakrj0</t>
   </si>
   <si>
+    <t>400280000</t>
+  </si>
+  <si>
+    <t>celestia1jlu7fqmtfkd7wj3nz53ta7yj4xtvhf4kwldkg2</t>
+  </si>
+  <si>
+    <t>219660892</t>
+  </si>
+  <si>
     <t>celestia1nnh4thxglkdcp0h2kr7t53rqakrmlwvyemsgc0</t>
   </si>
   <si>
+    <t>157621733</t>
+  </si>
+  <si>
     <t>celestia1nnlvg9fcs7lfsfxgeaf69hg604nxag0ahhuyu0</t>
   </si>
   <si>
+    <t>153205015</t>
+  </si>
+  <si>
+    <t>celestia1n5jj462cvekx8z0syz8u2gmpf46g2csx75khaw</t>
+  </si>
+  <si>
+    <t>206445206</t>
+  </si>
+  <si>
+    <t>celestia1n5hmum0fpuswq4nerff9rrwqudlylxxvjfrn4e</t>
+  </si>
+  <si>
+    <t>121915212</t>
+  </si>
+  <si>
+    <t>celestia15scds0jq9crvvphgmnkxuvnycj64xj9lu8hnzg</t>
+  </si>
+  <si>
+    <t>301052830</t>
+  </si>
+  <si>
+    <t>celestia157qu9jpq3pasuc9s50tpd4hwu3tm45lrg6nm2q</t>
+  </si>
+  <si>
+    <t>248600000</t>
+  </si>
+  <si>
+    <t>celestia14a8ecps4lm2admgxdcq007kmgt4l9cxye4jv3w</t>
+  </si>
+  <si>
+    <t>217000000</t>
+  </si>
+  <si>
     <t>celestia1kw6mw70wafdxgp2n8s4lscx04du8ka6dvul6jy</t>
   </si>
   <si>
+    <t>6001581411</t>
+  </si>
+  <si>
+    <t>celestia1ksez8429rjftqa8f9wxxyg4l80ey7cfws3k6mw</t>
+  </si>
+  <si>
+    <t>292857866</t>
+  </si>
+  <si>
+    <t>celestia1hy4s6pku897sq4s52mwd2wegvgd0llestm3ffm</t>
+  </si>
+  <si>
+    <t>218229919</t>
+  </si>
+  <si>
+    <t>celestia1cpxcvc7e6k4c0mxz3vf7w4jd5szd6ynq362h3p</t>
+  </si>
+  <si>
+    <t>132000000</t>
+  </si>
+  <si>
+    <t>celestia1c65g3f5ujul79f4tv39rnx4k3fp0nwvrp3w397</t>
+  </si>
+  <si>
+    <t>2310500000</t>
+  </si>
+  <si>
+    <t>celestia1ep7cpq9wa0cuds253ucwywqtl4ewx2y29zksfr</t>
+  </si>
+  <si>
+    <t>101940000</t>
+  </si>
+  <si>
+    <t>celestia1ege3jn6j509d7985jdefxtn7mcvngjp8qn9sk9</t>
+  </si>
+  <si>
+    <t>306583392</t>
+  </si>
+  <si>
+    <t>celestia1ehvppg4y9ar7dvnhjnqgjwxm2vd8yvsxpq6gre</t>
+  </si>
+  <si>
+    <t>200200000</t>
+  </si>
+  <si>
+    <t>celestia16z62k22z3xpq7x9sdhwums2lcks8wejc02rdw7</t>
+  </si>
+  <si>
+    <t>200574218</t>
+  </si>
+  <si>
+    <t>celestia16e8eese68zg9yvsd9f8f4urywq9vt276k09l7l</t>
+  </si>
+  <si>
+    <t>212260000</t>
+  </si>
+  <si>
+    <t>celestia1mfje8fezn9mxc7dxnxzumr9kffhxtrn9e89l97</t>
+  </si>
+  <si>
+    <t>300000000</t>
+  </si>
+  <si>
     <t>celestia1m20wyugxnse56q2lfmm9txyk2fx39s6fl9jxtk</t>
   </si>
   <si>
+    <t>103400000</t>
+  </si>
+  <si>
     <t>celestia1mu26reayvd7vwknxugmx3vw8fqmvladjcfhtv2</t>
   </si>
   <si>
+    <t>690453032</t>
+  </si>
+  <si>
+    <t>celestia1mud3fuxt5zw4kfysd9gjrn6fjj5rz9g6z5txff</t>
+  </si>
+  <si>
+    <t>5502853171</t>
+  </si>
+  <si>
+    <t>celestia1ux8zlvpsvmvnnrqxm0an2kff2rr7950cwa83v7</t>
+  </si>
+  <si>
+    <t>333300000</t>
+  </si>
+  <si>
+    <t>celestia1ujepumwuauf5dv4jjc686f6xj4u29rtp09yr70</t>
+  </si>
+  <si>
+    <t>160427187</t>
+  </si>
+  <si>
     <t>celestia1uah45eeda8k5qwqdapslalxu8kgf9deqfuakr5</t>
   </si>
   <si>
+    <t>102962670</t>
+  </si>
+  <si>
     <t>celestia1aqcxtsz2u66fq92et6txlwywtetg467j8ggrp0</t>
   </si>
   <si>
+    <t>234294121</t>
+  </si>
+  <si>
+    <t>celestia1a2de4qm0ecg338cyqmww3fpv9a7et9fgcnj0uh</t>
+  </si>
+  <si>
+    <t>129000000</t>
+  </si>
+  <si>
     <t>celestia1a3858f250ve4t6rp9ef2svpr7sj20aax349dgr</t>
   </si>
   <si>
+    <t>358280000</t>
+  </si>
+  <si>
+    <t>celestia17p3r5sd5a0hctry733y4f7f5etp9uxvk2g4snz</t>
+  </si>
+  <si>
+    <t>505306363</t>
+  </si>
+  <si>
     <t>celestia177n4ptnw3utwjlrk8n28t4zf00afm379ej5k60</t>
   </si>
   <si>
+    <t>211651192</t>
+  </si>
+  <si>
     <t>celestia177h5g6har2ne9rhn5ekwlpgv7dtkjxp2765yfs</t>
+  </si>
+  <si>
+    <t>751883624</t>
+  </si>
+  <si>
+    <t>celestia1lft50ldy04u3szywhg38cnfpxfg7r5488veny2</t>
+  </si>
+  <si>
+    <t>1114520412</t>
   </si>
 </sst>
 </file>
@@ -486,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B79"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="10" customWidth="1"/>
@@ -504,248 +867,624 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>2500000</v>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2500000</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2500000</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2500000</v>
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>15000000</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2500000</v>
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>2500000</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2500000</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>2500000</v>
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>2500000</v>
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2500000</v>
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>2500000</v>
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>6000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>2500000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>15000000</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>2500000</v>
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2500000</v>
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>2500000</v>
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>2500000</v>
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>2500000</v>
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>2500000</v>
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>2500000</v>
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2500000</v>
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>6000000</v>
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>2500000</v>
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>2500000</v>
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>2500000</v>
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>2500000</v>
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>2500000</v>
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>2500000</v>
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>2500000</v>
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>138</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
